--- a/pmutt_demo/input/NH3_Input_Data.xlsx
+++ b/pmutt_demo/input/NH3_Input_Data.xlsx
@@ -1,29 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Dropbox\UDel Documents (Dropbox)\UDel Research\Github\pMuTT_master\docs\source\examples_jupyter\nam2019\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerhard\Documents\GitHub\ACS_Workshop_Aug_2023\pmutt_to_omkm\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0DA977-23D2-4C47-ACAE-FD11B7FD4FC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CD33E4-F7B9-4699-AD4F-171D581E25F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="0" windowWidth="28710" windowHeight="15480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="species" sheetId="1" r:id="rId1"/>
-    <sheet name="reactions" sheetId="3" r:id="rId2"/>
-    <sheet name="refs" sheetId="2" r:id="rId3"/>
-    <sheet name="cat_sites" sheetId="4" r:id="rId4"/>
+    <sheet name="refs" sheetId="2" r:id="rId1"/>
+    <sheet name="species" sheetId="1" r:id="rId2"/>
+    <sheet name="reactor" sheetId="8" r:id="rId3"/>
+    <sheet name="beps" sheetId="7" r:id="rId4"/>
+    <sheet name="phases" sheetId="5" r:id="rId5"/>
+    <sheet name="reactions" sheetId="3" r:id="rId6"/>
+    <sheet name="lateral_interactions" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="64">
-  <si>
-    <t>S</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="156">
   <si>
     <t>name</t>
   </si>
@@ -96,9 +100,6 @@
     <t>Vibrational wavenumber in 1/cm</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>IdealGas</t>
   </si>
   <si>
@@ -171,21 +172,6 @@
     <t>density</t>
   </si>
   <si>
-    <t>bulk_specie</t>
-  </si>
-  <si>
-    <t>Name of catalyst site</t>
-  </si>
-  <si>
-    <t>Site density in mol/cm2</t>
-  </si>
-  <si>
-    <t>Density in g/cm3</t>
-  </si>
-  <si>
-    <t>Name of the bulk specie</t>
-  </si>
-  <si>
     <t>H2 + 2RU(S) = 2H(S) + 2RU(B)</t>
   </si>
   <si>
@@ -201,30 +187,325 @@
     <t>RU(S)</t>
   </si>
   <si>
-    <t>NH3(S) + RU(S)= TS1_NH3(S) = NH2(S) + H(S) + RU(B)</t>
-  </si>
-  <si>
-    <t>NH2(S) + RU(S) = TS2_NH2(S) = NH(S)  + H(S) + RU(B)</t>
-  </si>
-  <si>
-    <t>NH(S)  + RU(S) = TS3_NH(S) = N(S)   + H(S) + RU(B)</t>
-  </si>
-  <si>
     <t>2N(S) + RU(B) = TS4_N2(S) = N2(S)  +  RU(S)</t>
   </si>
   <si>
-    <t>RU0001</t>
-  </si>
-  <si>
-    <t>Phase of the Species. Supported options: 
-G - gas
-S - surface</t>
-  </si>
-  <si>
     <t>Statistical model to use</t>
   </si>
   <si>
     <t>vib_wavenumber</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>terrace</t>
+  </si>
+  <si>
+    <t>bulk</t>
+  </si>
+  <si>
+    <t>Species phase. Should correspond to a row in phases sheet.</t>
+  </si>
+  <si>
+    <t>Name of phase</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Optional note describing the phase</t>
+  </si>
+  <si>
+    <t>Bulk density in g/cm3. Only required for StoichiometricSolid</t>
+  </si>
+  <si>
+    <t>Site density in molecule/cm2. Only required for InteractingInterface</t>
+  </si>
+  <si>
+    <t>Type of phase</t>
+  </si>
+  <si>
+    <t>InteractingInterface</t>
+  </si>
+  <si>
+    <t>Ru(0001)</t>
+  </si>
+  <si>
+    <t>Ru Metal</t>
+  </si>
+  <si>
+    <t>phase_type</t>
+  </si>
+  <si>
+    <t>list.phases</t>
+  </si>
+  <si>
+    <t>StoichSolid</t>
+  </si>
+  <si>
+    <t>elements.Ru</t>
+  </si>
+  <si>
+    <t>Number of N atoms in formula</t>
+  </si>
+  <si>
+    <t>Number of H atoms in formula</t>
+  </si>
+  <si>
+    <t>Number of Ru atoms in formula</t>
+  </si>
+  <si>
+    <t>Ru</t>
+  </si>
+  <si>
+    <t>name_i</t>
+  </si>
+  <si>
+    <t>name_j</t>
+  </si>
+  <si>
+    <t>list.intervals</t>
+  </si>
+  <si>
+    <t>list.slopes</t>
+  </si>
+  <si>
+    <t>Name of specie's properties affected by coverage of specie_j</t>
+  </si>
+  <si>
+    <t>Name of specie affecting the properties of specie_i</t>
+  </si>
+  <si>
+    <t>Intervals (in ML) to change slopes.</t>
+  </si>
+  <si>
+    <t>Slopes (in kcal/mol) to use between the intervals</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>intercept</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Optional name to give to reaction</t>
+  </si>
+  <si>
+    <t>N-H</t>
+  </si>
+  <si>
+    <t>NH-H</t>
+  </si>
+  <si>
+    <t>NH2-H</t>
+  </si>
+  <si>
+    <t>Slope of BEP relationship</t>
+  </si>
+  <si>
+    <t>Intercept of BEP relationship in kcal/mol</t>
+  </si>
+  <si>
+    <t>cleavage</t>
+  </si>
+  <si>
+    <t>Used for BEP relationships. The direction of the elementary step. Supported options are 'synthesis' or 'cleavage'.</t>
+  </si>
+  <si>
+    <t>Direction of BEP relationship. Supported options are 'synthesis' or 'cleavage'.</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Values taken from https://github.com/VlachosGroup/NH3-Matlab-Microkinetic-Model/blob/master/amm_BEP_LSR.m#L79</t>
+  </si>
+  <si>
+    <t>Values taken from https://github.com/VlachosGroup/NH3-Matlab-Microkinetic-Model/blob/master/amm_BEP_LSR.m#L80</t>
+  </si>
+  <si>
+    <t>Values taken from https://github.com/VlachosGroup/NH3-Matlab-Microkinetic-Model/blob/master/amm_BEP_LSR.m#L81</t>
+  </si>
+  <si>
+    <t>NH3(S) + RU(S)= NH2-H = NH2(S) + H(S) + RU(B)</t>
+  </si>
+  <si>
+    <t>NH2(S) + RU(S) = NH-H = NH(S)  + H(S) + RU(B)</t>
+  </si>
+  <si>
+    <t>N2(T)</t>
+  </si>
+  <si>
+    <t>N(T)</t>
+  </si>
+  <si>
+    <t>H(T)</t>
+  </si>
+  <si>
+    <t>NH3(T)</t>
+  </si>
+  <si>
+    <t>NH2(T)</t>
+  </si>
+  <si>
+    <t>NH(T)</t>
+  </si>
+  <si>
+    <t>TS1_NH3(T)</t>
+  </si>
+  <si>
+    <t>TS2_NH2(T)</t>
+  </si>
+  <si>
+    <t>TS3_NH(T)</t>
+  </si>
+  <si>
+    <t>TS4_N2(T)</t>
+  </si>
+  <si>
+    <t>RU(T)</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>H2 + 2RU(T) = 2H(T) + 2RU(B)</t>
+  </si>
+  <si>
+    <t>N2 + RU(T)  = N2(T) + RU(B)</t>
+  </si>
+  <si>
+    <t>NH3 + RU(T) = NH3(T) + RU(B)</t>
+  </si>
+  <si>
+    <t>NH3(T) + RU(T)= NH2-H = NH2(T) + H(T) + RU(B)</t>
+  </si>
+  <si>
+    <t>NH2(T) + RU(T) = NH-H = NH(T)  + H(T) + RU(B)</t>
+  </si>
+  <si>
+    <t>NH(T)  + RU(T) = N-H = N(T)   + H(T) + RU(B)</t>
+  </si>
+  <si>
+    <t>2N(T) + RU(B) = TS4_N2(T) = N2(T)  +  RU(T)</t>
+  </si>
+  <si>
+    <t>synthesis</t>
+  </si>
+  <si>
+    <t>N(S) + H(S) + RU(B) = N-H = NH(S)  + RU(S)</t>
+  </si>
+  <si>
+    <t>n_sites</t>
+  </si>
+  <si>
+    <t>Number of sites occupied by species. Leave blank for gas species. 1 for monodentate species.</t>
+  </si>
+  <si>
+    <t>Ru(0001) with atoms deleted</t>
+  </si>
+  <si>
+    <t>reactor_type</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>cat_abyv</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>flow_rate</t>
+  </si>
+  <si>
+    <t>transient</t>
+  </si>
+  <si>
+    <t>stepping</t>
+  </si>
+  <si>
+    <t>init_step</t>
+  </si>
+  <si>
+    <t>atol</t>
+  </si>
+  <si>
+    <t>rtol</t>
+  </si>
+  <si>
+    <t>output_format</t>
+  </si>
+  <si>
+    <t>Type of reactor. Accepted options include 'pfr', 'cstr', 'pfr_0d', 'batch'</t>
+  </si>
+  <si>
+    <t>Mode of operation.</t>
+  </si>
+  <si>
+    <t>Volume of reactor (units correspond to length^3 in units sheet)</t>
+  </si>
+  <si>
+    <t>Temperature of reactor in K</t>
+  </si>
+  <si>
+    <t>Pressure of reactor (units correspond to pressure in units sheet)</t>
+  </si>
+  <si>
+    <t>Catalyst surface area to reactor volume ratio (units correspond to 1/length in units sheet)</t>
+  </si>
+  <si>
+    <t>Time taken to converge (units correspond to time in unit sheet)</t>
+  </si>
+  <si>
+    <t>Flow rate (units correspond to length^3/time in units sheet)</t>
+  </si>
+  <si>
+    <t>If True, transient run data will be saved.</t>
+  </si>
+  <si>
+    <t>Type of time stepping to perform during transient runs.</t>
+  </si>
+  <si>
+    <t>Solver option for initial time step taken. Corresponds to time in units sheet.</t>
+  </si>
+  <si>
+    <t>Solver option for absolute tolerance.</t>
+  </si>
+  <si>
+    <t>Solver option for relative tolerance</t>
+  </si>
+  <si>
+    <t>Format to write output formats. Accepted options are 'dat' and 'csv'.</t>
+  </si>
+  <si>
+    <t>cstr</t>
+  </si>
+  <si>
+    <t>isothermal</t>
+  </si>
+  <si>
+    <t>logarithmic</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>temperature_mode</t>
   </si>
 </sst>
 </file>
@@ -727,7 +1008,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -740,6 +1021,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1095,93 +1378,605 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BQ60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC39740C-BBBA-4550-A14F-BA7A8AC6E618}">
+  <dimension ref="A1:BD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ2" s="1"/>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>-16.63</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="F4">
+        <v>-18.380253106718484</v>
+      </c>
+      <c r="G4">
+        <v>-19.54</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4">
+        <v>3534</v>
+      </c>
+      <c r="L4">
+        <v>3464</v>
+      </c>
+      <c r="M4">
+        <v>1765</v>
+      </c>
+      <c r="N4">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-6.77</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BS63"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
@@ -1225,73 +2020,79 @@
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
-    </row>
-    <row r="2" spans="1:69" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+    </row>
+    <row r="2" spans="1:71" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>17</v>
+        <v>70</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1335,51 +2136,48 @@
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1"/>
-    </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+    </row>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="J3" s="4">
         <v>-16.63</v>
       </c>
-      <c r="I3" s="4">
+      <c r="K3" s="4">
         <v>2744</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
       <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -1423,10 +2221,12 @@
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
       <c r="BQ3" s="1"/>
-    </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+    </row>
+    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1434,38 +2234,32 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="J4" s="4">
         <v>-19.54</v>
       </c>
-      <c r="I4" s="4">
-        <v>3565.26</v>
-      </c>
-      <c r="J4" s="4">
-        <v>3565.26</v>
-      </c>
       <c r="K4" s="4">
-        <v>3433.9</v>
+        <v>3534</v>
       </c>
       <c r="L4" s="4">
-        <v>1727.23</v>
+        <v>3464</v>
       </c>
       <c r="M4" s="4">
-        <v>1727.23</v>
+        <v>1765</v>
       </c>
       <c r="N4" s="4">
-        <v>1132.51</v>
+        <v>1139</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -1473,11 +2267,11 @@
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
       <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -1521,51 +2315,48 @@
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
       <c r="BQ4" s="1"/>
-    </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+    </row>
+    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="4">
         <v>-6.77</v>
       </c>
-      <c r="I5" s="4">
+      <c r="K5" s="4">
         <v>4342</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
       <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -1609,55 +2400,55 @@
       <c r="BO5" s="1"/>
       <c r="BP5" s="1"/>
       <c r="BQ5" s="1"/>
-    </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+    </row>
+    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
       <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="4">
+        <v>53</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4">
         <v>-17.239999999999952</v>
       </c>
-      <c r="I6" s="4">
+      <c r="K6" s="4">
         <v>2197.19</v>
       </c>
-      <c r="J6" s="4">
+      <c r="L6" s="4">
         <v>360.41500000000002</v>
       </c>
-      <c r="K6" s="4">
+      <c r="M6" s="4">
         <v>347.34300000000002</v>
       </c>
-      <c r="L6" s="4">
+      <c r="N6" s="4">
         <v>335.67399999999998</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>62.076000000000001</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>32.179400000000001</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
       <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
@@ -1701,53 +2492,53 @@
       <c r="BO6" s="1"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
-    </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="1"/>
+    </row>
+    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
       <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="4">
+        <v>53</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
         <v>-9.339999999999975</v>
       </c>
-      <c r="I7" s="4">
+      <c r="K7" s="4">
         <v>549.10500000000002</v>
       </c>
-      <c r="J7" s="4">
+      <c r="L7" s="4">
         <v>538.55999999999995</v>
       </c>
-      <c r="K7" s="4">
+      <c r="M7" s="4">
         <v>504.32299999999998</v>
       </c>
-      <c r="L7" s="4">
+      <c r="N7" s="4">
         <v>475.80500000000001</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>459.08100000000002</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>410.01799999999997</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
@@ -1779,8 +2570,8 @@
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
       <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
       <c r="BH7" s="1"/>
-      <c r="BI7" s="1"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -1789,37 +2580,37 @@
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
       <c r="BQ7" s="1"/>
-    </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+    </row>
+    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
       <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="4">
+        <v>53</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4">
         <v>-4</v>
       </c>
-      <c r="I8" s="4">
+      <c r="K8" s="4">
         <v>1003.51</v>
       </c>
-      <c r="J8" s="4">
+      <c r="L8" s="4">
         <v>625.54999999999995</v>
       </c>
-      <c r="K8" s="4">
+      <c r="M8" s="4">
         <v>616.29</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1827,9 +2618,9 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="1"/>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
@@ -1852,8 +2643,8 @@
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
       <c r="BH8" s="1"/>
-      <c r="BI8" s="1"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
@@ -1862,10 +2653,12 @@
       <c r="BO8" s="1"/>
       <c r="BP8" s="1"/>
       <c r="BQ8" s="1"/>
-    </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+    </row>
+    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1873,54 +2666,55 @@
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
       <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="4">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4">
         <v>-20.42999999999995</v>
       </c>
-      <c r="I9" s="4">
+      <c r="K9" s="4">
         <v>3491.0891299999998</v>
       </c>
-      <c r="J9" s="4">
+      <c r="L9" s="4">
         <v>3488.8194899999999</v>
       </c>
-      <c r="K9" s="4">
+      <c r="M9" s="4">
         <v>3364.5232299999998</v>
       </c>
-      <c r="L9" s="4">
+      <c r="N9" s="4">
         <v>1583.5157099999999</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>1582.0703000000001</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>1124.22477</v>
       </c>
-      <c r="O9" s="4">
+      <c r="Q9" s="4">
         <v>570.21231</v>
       </c>
-      <c r="P9" s="4">
+      <c r="R9" s="4">
         <v>567.22147099999995</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="S9" s="4">
         <v>333.08962400000001</v>
       </c>
-      <c r="R9" s="4">
+      <c r="T9" s="4">
         <v>122.859345</v>
       </c>
-      <c r="S9" s="4">
+      <c r="U9" s="4">
         <v>83.828554999999994</v>
       </c>
-      <c r="T9" s="4">
+      <c r="V9" s="4">
         <v>70.625114999999994</v>
       </c>
-      <c r="U9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
+      <c r="W9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
@@ -1943,8 +2737,8 @@
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
       <c r="BH9" s="1"/>
-      <c r="BI9" s="1"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -1953,10 +2747,12 @@
       <c r="BO9" s="1"/>
       <c r="BP9" s="1"/>
       <c r="BQ9" s="1"/>
-    </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+    </row>
+    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1964,48 +2760,49 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
       <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="4">
+        <v>53</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4">
         <v>-16.589999999999975</v>
       </c>
-      <c r="I10" s="4">
+      <c r="K10" s="4">
         <v>3469.3003399999998</v>
       </c>
-      <c r="J10" s="4">
+      <c r="L10" s="4">
         <v>3381.05197</v>
       </c>
-      <c r="K10" s="4">
+      <c r="M10" s="4">
         <v>1503.01629</v>
       </c>
-      <c r="L10" s="4">
+      <c r="N10" s="4">
         <v>698.86880399999995</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>625.59609399999999</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>615.93978300000003</v>
       </c>
-      <c r="O10" s="4">
+      <c r="Q10" s="4">
         <v>475.130224</v>
       </c>
-      <c r="P10" s="4">
+      <c r="R10" s="4">
         <v>298.12000999999998</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="S10" s="4">
         <v>153.25013899999999</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
       <c r="T10" s="4"/>
-      <c r="U10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
@@ -2028,8 +2825,8 @@
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
       <c r="BH10" s="1"/>
-      <c r="BI10" s="1"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -2038,10 +2835,12 @@
       <c r="BO10" s="1"/>
       <c r="BP10" s="1"/>
       <c r="BQ10" s="1"/>
-    </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BR10" s="1"/>
+      <c r="BS10" s="1"/>
+    </row>
+    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2049,42 +2848,43 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
       <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="4">
+        <v>53</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="4">
         <v>-13.20999999999998</v>
       </c>
-      <c r="I11" s="4">
+      <c r="K11" s="4">
         <v>3403.12878</v>
       </c>
-      <c r="J11" s="4">
+      <c r="L11" s="4">
         <v>718.17758800000001</v>
       </c>
-      <c r="K11" s="4">
+      <c r="M11" s="4">
         <v>710.58051999999998</v>
       </c>
-      <c r="L11" s="4">
+      <c r="N11" s="4">
         <v>528.52565900000002</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>415.19586900000002</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>410.13079699999997</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
-      <c r="U11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
@@ -2107,8 +2907,8 @@
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
       <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -2117,10 +2917,12 @@
       <c r="BO11" s="1"/>
       <c r="BP11" s="1"/>
       <c r="BQ11" s="1"/>
-    </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+    </row>
+    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2128,53 +2930,51 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="4">
-        <f>H9+1.19</f>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <f>J9+1.19</f>
         <v>-19.239999999999949</v>
       </c>
-      <c r="I12" s="4">
+      <c r="K12" s="4">
         <v>3453.4106299999999</v>
       </c>
-      <c r="J12" s="4">
+      <c r="L12" s="4">
         <v>3355.6699199999998</v>
       </c>
-      <c r="K12" s="4">
+      <c r="M12" s="4">
         <v>1723.84977</v>
       </c>
-      <c r="L12" s="4">
+      <c r="N12" s="4">
         <v>1487.9548400000001</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>959.15072299999997</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>888.94619799999998</v>
       </c>
-      <c r="O12" s="4">
+      <c r="Q12" s="4">
         <v>594.08943899999997</v>
       </c>
-      <c r="P12" s="4">
+      <c r="R12" s="4">
         <v>428.43113599999998</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="S12" s="4">
         <v>227.032386</v>
       </c>
-      <c r="R12" s="4">
+      <c r="T12" s="4">
         <v>206.046727</v>
       </c>
-      <c r="S12" s="4">
+      <c r="U12" s="4">
         <v>142.13585599999999</v>
       </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="1"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
@@ -2197,8 +2997,8 @@
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
       <c r="BH12" s="1"/>
-      <c r="BI12" s="1"/>
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1"/>
@@ -2207,10 +3007,12 @@
       <c r="BO12" s="1"/>
       <c r="BP12" s="1"/>
       <c r="BQ12" s="1"/>
-    </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+    </row>
+    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2218,47 +3020,45 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="4">
-        <f>H10+0.72</f>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="4">
+        <f>J10+0.72</f>
         <v>-15.869999999999974</v>
       </c>
-      <c r="I13" s="4">
+      <c r="K13" s="4">
         <v>3426.4448400000001</v>
       </c>
-      <c r="J13" s="4">
+      <c r="L13" s="4">
         <v>1293.72327</v>
       </c>
-      <c r="K13" s="4">
+      <c r="M13" s="4">
         <v>922.83076800000003</v>
       </c>
-      <c r="L13" s="4">
+      <c r="N13" s="4">
         <v>660.96659799999998</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>525.59512400000006</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>496.83726300000001</v>
       </c>
-      <c r="O13" s="4">
+      <c r="Q13" s="4">
         <v>330.67445900000001</v>
       </c>
-      <c r="P13" s="4">
+      <c r="R13" s="4">
         <v>290.27800500000001</v>
       </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="1"/>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
@@ -2281,8 +3081,8 @@
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
       <c r="BH13" s="1"/>
-      <c r="BI13" s="1"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
@@ -2291,10 +3091,12 @@
       <c r="BO13" s="1"/>
       <c r="BP13" s="1"/>
       <c r="BQ13" s="1"/>
-    </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="1"/>
+    </row>
+    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2302,41 +3104,39 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="4">
-        <f>H11+1.28</f>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4">
+        <f>J11+1.28</f>
         <v>-11.92999999999998</v>
       </c>
-      <c r="I14" s="4">
+      <c r="K14" s="4">
         <v>1201.6048699999999</v>
       </c>
-      <c r="J14" s="4">
+      <c r="L14" s="4">
         <v>491.566416</v>
       </c>
-      <c r="K14" s="4">
+      <c r="M14" s="4">
         <v>462.01550200000003</v>
       </c>
-      <c r="L14" s="4">
+      <c r="N14" s="4">
         <v>402.15890400000001</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>242.13872599999999</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="1"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
@@ -2359,8 +3159,8 @@
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
       <c r="BH14" s="1"/>
-      <c r="BI14" s="1"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
@@ -2369,52 +3169,49 @@
       <c r="BO14" s="1"/>
       <c r="BP14" s="1"/>
       <c r="BQ14" s="1"/>
-    </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+    </row>
+    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="4">
-        <f>H6+2.57</f>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="4">
+        <f>J6+2.57</f>
         <v>-14.669999999999952</v>
       </c>
-      <c r="I15" s="4">
+      <c r="K15" s="4">
         <v>485.61399999999998</v>
       </c>
-      <c r="J15" s="4">
+      <c r="L15" s="4">
         <v>392.97699999999998</v>
       </c>
-      <c r="K15" s="4">
+      <c r="M15" s="4">
         <v>386.18599999999998</v>
       </c>
-      <c r="L15" s="4">
+      <c r="N15" s="4">
         <v>280.94299999999998</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>168.43100000000001</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
@@ -2437,8 +3234,8 @@
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
       <c r="BG15" s="1"/>
-      <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
@@ -2447,25 +3244,25 @@
       <c r="BN15" s="1"/>
       <c r="BO15" s="1"/>
       <c r="BP15" s="1"/>
-    </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BQ15" s="1"/>
+      <c r="BR15" s="1"/>
+    </row>
+    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2477,9 +3274,9 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="1"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
@@ -2502,8 +3299,8 @@
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
       <c r="BH16" s="1"/>
-      <c r="BI16" s="1"/>
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
       <c r="BL16" s="1"/>
@@ -2512,39 +3309,53 @@
       <c r="BO16" s="1"/>
       <c r="BP16" s="1"/>
       <c r="BQ16" s="1"/>
-    </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="BR16" s="1"/>
+      <c r="BS16" s="1"/>
+    </row>
+    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="J17" s="4">
+        <v>-17.389999999999986</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1015.734101</v>
+      </c>
+      <c r="L17" s="4">
+        <v>456.07363700000002</v>
+      </c>
+      <c r="M17" s="4">
+        <v>408.12729300000001</v>
+      </c>
+      <c r="N17" s="4">
+        <v>378.51690000000002</v>
+      </c>
+      <c r="O17" s="4">
+        <v>344.87134400000002</v>
+      </c>
+      <c r="P17" s="4">
+        <v>334.62168200000002</v>
+      </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-      <c r="U17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
@@ -2567,8 +3378,8 @@
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
       <c r="BH17" s="1"/>
-      <c r="BI17" s="1"/>
       <c r="BJ17" s="1"/>
       <c r="BK17" s="1"/>
       <c r="BL17" s="1"/>
@@ -2577,11 +3388,47 @@
       <c r="BO17" s="1"/>
       <c r="BP17" s="1"/>
       <c r="BQ17" s="1"/>
-    </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="D18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
+      <c r="BR17" s="1"/>
+      <c r="BS17" s="1"/>
+    </row>
+    <row r="18" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
+        <v>-9.3899999999999864</v>
+      </c>
+      <c r="K18" s="4">
+        <v>529.80737599999998</v>
+      </c>
+      <c r="L18" s="4">
+        <v>506.95443399999999</v>
+      </c>
+      <c r="M18" s="4">
+        <v>471.09772600000002</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
@@ -2604,8 +3451,8 @@
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
       <c r="BH18" s="1"/>
-      <c r="BI18" s="1"/>
       <c r="BJ18" s="1"/>
       <c r="BK18" s="1"/>
       <c r="BL18" s="1"/>
@@ -2614,11 +3461,47 @@
       <c r="BO18" s="1"/>
       <c r="BP18" s="1"/>
       <c r="BQ18" s="1"/>
-    </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="D19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
+      <c r="BR18" s="1"/>
+      <c r="BS18" s="1"/>
+    </row>
+    <row r="19" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4">
+        <v>-4</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1003.51</v>
+      </c>
+      <c r="L19" s="4">
+        <v>625.54999999999995</v>
+      </c>
+      <c r="M19" s="4">
+        <v>616.29</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
@@ -2641,8 +3524,8 @@
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
       <c r="BH19" s="1"/>
-      <c r="BI19" s="1"/>
       <c r="BJ19" s="1"/>
       <c r="BK19" s="1"/>
       <c r="BL19" s="1"/>
@@ -2651,11 +3534,68 @@
       <c r="BO19" s="1"/>
       <c r="BP19" s="1"/>
       <c r="BQ19" s="1"/>
-    </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="D20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+    </row>
+    <row r="20" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4">
+        <v>-20.67999999999995</v>
+      </c>
+      <c r="K20" s="4">
+        <v>3498.0269910000002</v>
+      </c>
+      <c r="L20" s="4">
+        <v>3469.3304969999999</v>
+      </c>
+      <c r="M20" s="4">
+        <v>3362.813486</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1590.9105280000001</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1579.266171</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1140.7628299999999</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>564.97479799999996</v>
+      </c>
+      <c r="R20" s="4">
+        <v>555.49956799999995</v>
+      </c>
+      <c r="S20" s="4">
+        <v>336.10022600000002</v>
+      </c>
+      <c r="T20" s="4">
+        <v>117.161717</v>
+      </c>
+      <c r="U20" s="4">
+        <v>86.774373999999995</v>
+      </c>
+      <c r="V20" s="4">
+        <v>78.100128999999995</v>
+      </c>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
@@ -2678,8 +3618,8 @@
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
       <c r="BH20" s="1"/>
-      <c r="BI20" s="1"/>
       <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
       <c r="BL20" s="1"/>
@@ -2688,11 +3628,62 @@
       <c r="BO20" s="1"/>
       <c r="BP20" s="1"/>
       <c r="BQ20" s="1"/>
-    </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="D21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1"/>
+    </row>
+    <row r="21" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
+        <v>-17.149999999999977</v>
+      </c>
+      <c r="K21" s="4">
+        <v>3528.6824689999999</v>
+      </c>
+      <c r="L21" s="4">
+        <v>3375.447388</v>
+      </c>
+      <c r="M21" s="4">
+        <v>1477.164</v>
+      </c>
+      <c r="N21" s="4">
+        <v>720.07573000000002</v>
+      </c>
+      <c r="O21" s="4">
+        <v>615.66630499999997</v>
+      </c>
+      <c r="P21" s="4">
+        <v>581.96669099999997</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>468.85326900000001</v>
+      </c>
+      <c r="R21" s="4">
+        <v>286.369823</v>
+      </c>
+      <c r="S21" s="4">
+        <v>105.95658400000001</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
@@ -2715,8 +3706,8 @@
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
       <c r="BH21" s="1"/>
-      <c r="BI21" s="1"/>
       <c r="BJ21" s="1"/>
       <c r="BK21" s="1"/>
       <c r="BL21" s="1"/>
@@ -2725,11 +3716,56 @@
       <c r="BO21" s="1"/>
       <c r="BP21" s="1"/>
       <c r="BQ21" s="1"/>
-    </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="D22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+    </row>
+    <row r="22" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
+        <v>-13.1099999999999</v>
+      </c>
+      <c r="K22" s="4">
+        <v>3384.3746510000001</v>
+      </c>
+      <c r="L22" s="4">
+        <v>726.230954</v>
+      </c>
+      <c r="M22" s="4">
+        <v>669.42910800000004</v>
+      </c>
+      <c r="N22" s="4">
+        <v>506.27813500000002</v>
+      </c>
+      <c r="O22" s="4">
+        <v>409.50201399999997</v>
+      </c>
+      <c r="P22" s="4">
+        <v>387.80818099999999</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
@@ -2752,8 +3788,8 @@
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
       <c r="BH22" s="1"/>
-      <c r="BI22" s="1"/>
       <c r="BJ22" s="1"/>
       <c r="BK22" s="1"/>
       <c r="BL22" s="1"/>
@@ -2762,11 +3798,63 @@
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
       <c r="BQ22" s="1"/>
-    </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="D23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
+      <c r="BR22" s="1"/>
+      <c r="BS22" s="1"/>
+    </row>
+    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
+        <v>-19.809999999999945</v>
+      </c>
+      <c r="K23" s="4">
+        <v>3484.3961949999998</v>
+      </c>
+      <c r="L23" s="4">
+        <v>3385.2659090000002</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1685.8293080000001</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1480.998257</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1002.067555</v>
+      </c>
+      <c r="P23" s="4">
+        <v>916.14745100000005</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>575.40527899999995</v>
+      </c>
+      <c r="R23" s="4">
+        <v>431.30664400000001</v>
+      </c>
+      <c r="S23" s="4">
+        <v>345.148708</v>
+      </c>
+      <c r="T23" s="4">
+        <v>221.64965799999999</v>
+      </c>
+      <c r="U23" s="4">
+        <v>70.339661000000007</v>
+      </c>
+      <c r="V23" s="4"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
@@ -2789,8 +3877,8 @@
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
       <c r="BH23" s="1"/>
-      <c r="BI23" s="1"/>
       <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
       <c r="BL23" s="1"/>
@@ -2799,11 +3887,57 @@
       <c r="BO23" s="1"/>
       <c r="BP23" s="1"/>
       <c r="BQ23" s="1"/>
-    </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="D24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
+    </row>
+    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
+        <v>-15.819999999999936</v>
+      </c>
+      <c r="K24" s="4">
+        <v>3432.815967</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1789.8865699999999</v>
+      </c>
+      <c r="M24" s="4">
+        <v>1032.1897269999999</v>
+      </c>
+      <c r="N24" s="4">
+        <v>583.47939799999995</v>
+      </c>
+      <c r="O24" s="4">
+        <v>392.83707299999998</v>
+      </c>
+      <c r="P24" s="4">
+        <v>384.833597</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>311.60087600000003</v>
+      </c>
+      <c r="R24" s="4">
+        <v>110.96862400000001</v>
+      </c>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
@@ -2826,8 +3960,8 @@
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
       <c r="BH24" s="1"/>
-      <c r="BI24" s="1"/>
       <c r="BJ24" s="1"/>
       <c r="BK24" s="1"/>
       <c r="BL24" s="1"/>
@@ -2836,11 +3970,51 @@
       <c r="BO24" s="1"/>
       <c r="BP24" s="1"/>
       <c r="BQ24" s="1"/>
-    </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="D25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+    </row>
+    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4">
+        <v>-12.120000000000005</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1679.786106</v>
+      </c>
+      <c r="L25" s="4">
+        <v>509.64356400000003</v>
+      </c>
+      <c r="M25" s="4">
+        <v>489.064573</v>
+      </c>
+      <c r="N25" s="4">
+        <v>443.45080000000002</v>
+      </c>
+      <c r="O25" s="4">
+        <v>396.19289099999997</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
@@ -2863,8 +4037,8 @@
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
       <c r="BH25" s="1"/>
-      <c r="BI25" s="1"/>
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
       <c r="BL25" s="1"/>
@@ -2873,11 +4047,48 @@
       <c r="BO25" s="1"/>
       <c r="BP25" s="1"/>
       <c r="BQ25" s="1"/>
-    </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="D26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
+    </row>
+    <row r="26" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4">
+        <v>-16.799999999999955</v>
+      </c>
+      <c r="K26" s="4">
+        <v>549.17255799999998</v>
+      </c>
+      <c r="L26" s="4">
+        <v>496.630066</v>
+      </c>
+      <c r="M26" s="4">
+        <v>436.16551199999998</v>
+      </c>
+      <c r="N26" s="4">
+        <v>418.36746199999999</v>
+      </c>
+      <c r="O26" s="4">
+        <v>391.94338199999999</v>
+      </c>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
@@ -2900,8 +4111,8 @@
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
       <c r="BH26" s="1"/>
-      <c r="BI26" s="1"/>
       <c r="BJ26" s="1"/>
       <c r="BK26" s="1"/>
       <c r="BL26" s="1"/>
@@ -2910,11 +4121,39 @@
       <c r="BO26" s="1"/>
       <c r="BP26" s="1"/>
       <c r="BQ26" s="1"/>
-    </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="D27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
+    </row>
+    <row r="27" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="1"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
@@ -2937,8 +4176,8 @@
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
       <c r="BH27" s="1"/>
-      <c r="BI27" s="1"/>
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
       <c r="BL27" s="1"/>
@@ -2947,11 +4186,39 @@
       <c r="BO27" s="1"/>
       <c r="BP27" s="1"/>
       <c r="BQ27" s="1"/>
-    </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="D28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="1"/>
+    </row>
+    <row r="28" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="1"/>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
@@ -2974,8 +4241,8 @@
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
       <c r="BH28" s="1"/>
-      <c r="BI28" s="1"/>
       <c r="BJ28" s="1"/>
       <c r="BK28" s="1"/>
       <c r="BL28" s="1"/>
@@ -2984,11 +4251,12 @@
       <c r="BO28" s="1"/>
       <c r="BP28" s="1"/>
       <c r="BQ28" s="1"/>
-    </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="D29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
+      <c r="BR28" s="1"/>
+      <c r="BS28" s="1"/>
+    </row>
+    <row r="29" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
@@ -3011,8 +4279,8 @@
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
       <c r="BH29" s="1"/>
-      <c r="BI29" s="1"/>
       <c r="BJ29" s="1"/>
       <c r="BK29" s="1"/>
       <c r="BL29" s="1"/>
@@ -3021,11 +4289,12 @@
       <c r="BO29" s="1"/>
       <c r="BP29" s="1"/>
       <c r="BQ29" s="1"/>
-    </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="D30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
+      <c r="BR29" s="1"/>
+      <c r="BS29" s="1"/>
+    </row>
+    <row r="30" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
@@ -3048,8 +4317,8 @@
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
       <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
       <c r="BH30" s="1"/>
-      <c r="BI30" s="1"/>
       <c r="BJ30" s="1"/>
       <c r="BK30" s="1"/>
       <c r="BL30" s="1"/>
@@ -3058,11 +4327,12 @@
       <c r="BO30" s="1"/>
       <c r="BP30" s="1"/>
       <c r="BQ30" s="1"/>
-    </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="D31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+    </row>
+    <row r="31" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
@@ -3085,8 +4355,8 @@
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
       <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
       <c r="BH31" s="1"/>
-      <c r="BI31" s="1"/>
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
       <c r="BL31" s="1"/>
@@ -3095,11 +4365,12 @@
       <c r="BO31" s="1"/>
       <c r="BP31" s="1"/>
       <c r="BQ31" s="1"/>
-    </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="D32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
+    </row>
+    <row r="32" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
@@ -3122,8 +4393,8 @@
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
       <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
       <c r="BH32" s="1"/>
-      <c r="BI32" s="1"/>
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
       <c r="BL32" s="1"/>
@@ -3132,11 +4403,12 @@
       <c r="BO32" s="1"/>
       <c r="BP32" s="1"/>
       <c r="BQ32" s="1"/>
-    </row>
-    <row r="33" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
+      <c r="BR32" s="1"/>
+      <c r="BS32" s="1"/>
+    </row>
+    <row r="33" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
       <c r="AM33" s="1"/>
@@ -3159,8 +4431,8 @@
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
       <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
       <c r="BH33" s="1"/>
-      <c r="BI33" s="1"/>
       <c r="BJ33" s="1"/>
       <c r="BK33" s="1"/>
       <c r="BL33" s="1"/>
@@ -3169,11 +4441,12 @@
       <c r="BO33" s="1"/>
       <c r="BP33" s="1"/>
       <c r="BQ33" s="1"/>
-    </row>
-    <row r="34" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+    </row>
+    <row r="34" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
       <c r="AM34" s="1"/>
@@ -3196,8 +4469,8 @@
       <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
       <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
       <c r="BH34" s="1"/>
-      <c r="BI34" s="1"/>
       <c r="BJ34" s="1"/>
       <c r="BK34" s="1"/>
       <c r="BL34" s="1"/>
@@ -3206,11 +4479,12 @@
       <c r="BO34" s="1"/>
       <c r="BP34" s="1"/>
       <c r="BQ34" s="1"/>
-    </row>
-    <row r="35" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D35" s="1"/>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+    </row>
+    <row r="35" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
@@ -3233,8 +4507,8 @@
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
       <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
       <c r="BH35" s="1"/>
-      <c r="BI35" s="1"/>
       <c r="BJ35" s="1"/>
       <c r="BK35" s="1"/>
       <c r="BL35" s="1"/>
@@ -3243,11 +4517,12 @@
       <c r="BO35" s="1"/>
       <c r="BP35" s="1"/>
       <c r="BQ35" s="1"/>
-    </row>
-    <row r="36" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+    </row>
+    <row r="36" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
@@ -3270,8 +4545,8 @@
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
       <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
       <c r="BH36" s="1"/>
-      <c r="BI36" s="1"/>
       <c r="BJ36" s="1"/>
       <c r="BK36" s="1"/>
       <c r="BL36" s="1"/>
@@ -3280,11 +4555,12 @@
       <c r="BO36" s="1"/>
       <c r="BP36" s="1"/>
       <c r="BQ36" s="1"/>
-    </row>
-    <row r="37" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D37" s="1"/>
-      <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+    </row>
+    <row r="37" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
@@ -3307,8 +4583,8 @@
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
       <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
       <c r="BH37" s="1"/>
-      <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
       <c r="BL37" s="1"/>
@@ -3317,11 +4593,12 @@
       <c r="BO37" s="1"/>
       <c r="BP37" s="1"/>
       <c r="BQ37" s="1"/>
-    </row>
-    <row r="38" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+    </row>
+    <row r="38" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
       <c r="AM38" s="1"/>
@@ -3344,8 +4621,8 @@
       <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
       <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
       <c r="BH38" s="1"/>
-      <c r="BI38" s="1"/>
       <c r="BJ38" s="1"/>
       <c r="BK38" s="1"/>
       <c r="BL38" s="1"/>
@@ -3354,11 +4631,12 @@
       <c r="BO38" s="1"/>
       <c r="BP38" s="1"/>
       <c r="BQ38" s="1"/>
-    </row>
-    <row r="39" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+    </row>
+    <row r="39" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
       <c r="AM39" s="1"/>
@@ -3381,8 +4659,8 @@
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
       <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
       <c r="BH39" s="1"/>
-      <c r="BI39" s="1"/>
       <c r="BJ39" s="1"/>
       <c r="BK39" s="1"/>
       <c r="BL39" s="1"/>
@@ -3391,11 +4669,12 @@
       <c r="BO39" s="1"/>
       <c r="BP39" s="1"/>
       <c r="BQ39" s="1"/>
-    </row>
-    <row r="40" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D40" s="1"/>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
+    </row>
+    <row r="40" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
       <c r="AM40" s="1"/>
@@ -3418,8 +4697,8 @@
       <c r="BD40" s="1"/>
       <c r="BE40" s="1"/>
       <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
       <c r="BH40" s="1"/>
-      <c r="BI40" s="1"/>
       <c r="BJ40" s="1"/>
       <c r="BK40" s="1"/>
       <c r="BL40" s="1"/>
@@ -3428,11 +4707,12 @@
       <c r="BO40" s="1"/>
       <c r="BP40" s="1"/>
       <c r="BQ40" s="1"/>
-    </row>
-    <row r="41" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D41" s="1"/>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="1"/>
+    </row>
+    <row r="41" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="1"/>
       <c r="AM41" s="1"/>
@@ -3455,8 +4735,8 @@
       <c r="BD41" s="1"/>
       <c r="BE41" s="1"/>
       <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
       <c r="BH41" s="1"/>
-      <c r="BI41" s="1"/>
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1"/>
       <c r="BL41" s="1"/>
@@ -3465,11 +4745,12 @@
       <c r="BO41" s="1"/>
       <c r="BP41" s="1"/>
       <c r="BQ41" s="1"/>
-    </row>
-    <row r="42" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D42" s="1"/>
-      <c r="AI42" s="1"/>
-      <c r="AJ42" s="1"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="1"/>
+    </row>
+    <row r="42" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
       <c r="AM42" s="1"/>
@@ -3492,8 +4773,8 @@
       <c r="BD42" s="1"/>
       <c r="BE42" s="1"/>
       <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
       <c r="BH42" s="1"/>
-      <c r="BI42" s="1"/>
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1"/>
       <c r="BL42" s="1"/>
@@ -3502,11 +4783,12 @@
       <c r="BO42" s="1"/>
       <c r="BP42" s="1"/>
       <c r="BQ42" s="1"/>
-    </row>
-    <row r="43" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D43" s="1"/>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
+      <c r="BR42" s="1"/>
+      <c r="BS42" s="1"/>
+    </row>
+    <row r="43" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
       <c r="AM43" s="1"/>
@@ -3529,8 +4811,8 @@
       <c r="BD43" s="1"/>
       <c r="BE43" s="1"/>
       <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
       <c r="BH43" s="1"/>
-      <c r="BI43" s="1"/>
       <c r="BJ43" s="1"/>
       <c r="BK43" s="1"/>
       <c r="BL43" s="1"/>
@@ -3539,11 +4821,12 @@
       <c r="BO43" s="1"/>
       <c r="BP43" s="1"/>
       <c r="BQ43" s="1"/>
-    </row>
-    <row r="44" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D44" s="1"/>
-      <c r="AI44" s="1"/>
-      <c r="AJ44" s="1"/>
+      <c r="BR43" s="1"/>
+      <c r="BS43" s="1"/>
+    </row>
+    <row r="44" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
       <c r="AM44" s="1"/>
@@ -3566,8 +4849,8 @@
       <c r="BD44" s="1"/>
       <c r="BE44" s="1"/>
       <c r="BF44" s="1"/>
+      <c r="BG44" s="1"/>
       <c r="BH44" s="1"/>
-      <c r="BI44" s="1"/>
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1"/>
       <c r="BL44" s="1"/>
@@ -3576,11 +4859,12 @@
       <c r="BO44" s="1"/>
       <c r="BP44" s="1"/>
       <c r="BQ44" s="1"/>
-    </row>
-    <row r="45" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D45" s="1"/>
-      <c r="AI45" s="1"/>
-      <c r="AJ45" s="1"/>
+      <c r="BR44" s="1"/>
+      <c r="BS44" s="1"/>
+    </row>
+    <row r="45" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="1"/>
       <c r="AM45" s="1"/>
@@ -3603,8 +4887,8 @@
       <c r="BD45" s="1"/>
       <c r="BE45" s="1"/>
       <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
       <c r="BH45" s="1"/>
-      <c r="BI45" s="1"/>
       <c r="BJ45" s="1"/>
       <c r="BK45" s="1"/>
       <c r="BL45" s="1"/>
@@ -3613,11 +4897,12 @@
       <c r="BO45" s="1"/>
       <c r="BP45" s="1"/>
       <c r="BQ45" s="1"/>
-    </row>
-    <row r="46" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D46" s="1"/>
-      <c r="AI46" s="1"/>
-      <c r="AJ46" s="1"/>
+      <c r="BR45" s="1"/>
+      <c r="BS45" s="1"/>
+    </row>
+    <row r="46" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
       <c r="AM46" s="1"/>
@@ -3640,8 +4925,8 @@
       <c r="BD46" s="1"/>
       <c r="BE46" s="1"/>
       <c r="BF46" s="1"/>
+      <c r="BG46" s="1"/>
       <c r="BH46" s="1"/>
-      <c r="BI46" s="1"/>
       <c r="BJ46" s="1"/>
       <c r="BK46" s="1"/>
       <c r="BL46" s="1"/>
@@ -3650,11 +4935,12 @@
       <c r="BO46" s="1"/>
       <c r="BP46" s="1"/>
       <c r="BQ46" s="1"/>
-    </row>
-    <row r="47" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D47" s="1"/>
-      <c r="AI47" s="1"/>
-      <c r="AJ47" s="1"/>
+      <c r="BR46" s="1"/>
+      <c r="BS46" s="1"/>
+    </row>
+    <row r="47" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
       <c r="AM47" s="1"/>
@@ -3677,8 +4963,8 @@
       <c r="BD47" s="1"/>
       <c r="BE47" s="1"/>
       <c r="BF47" s="1"/>
+      <c r="BG47" s="1"/>
       <c r="BH47" s="1"/>
-      <c r="BI47" s="1"/>
       <c r="BJ47" s="1"/>
       <c r="BK47" s="1"/>
       <c r="BL47" s="1"/>
@@ -3687,11 +4973,12 @@
       <c r="BO47" s="1"/>
       <c r="BP47" s="1"/>
       <c r="BQ47" s="1"/>
-    </row>
-    <row r="48" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D48" s="1"/>
-      <c r="AI48" s="1"/>
-      <c r="AJ48" s="1"/>
+      <c r="BR47" s="1"/>
+      <c r="BS47" s="1"/>
+    </row>
+    <row r="48" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
       <c r="AM48" s="1"/>
@@ -3714,8 +5001,8 @@
       <c r="BD48" s="1"/>
       <c r="BE48" s="1"/>
       <c r="BF48" s="1"/>
+      <c r="BG48" s="1"/>
       <c r="BH48" s="1"/>
-      <c r="BI48" s="1"/>
       <c r="BJ48" s="1"/>
       <c r="BK48" s="1"/>
       <c r="BL48" s="1"/>
@@ -3724,11 +5011,12 @@
       <c r="BO48" s="1"/>
       <c r="BP48" s="1"/>
       <c r="BQ48" s="1"/>
-    </row>
-    <row r="49" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D49" s="1"/>
-      <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
+      <c r="BR48" s="1"/>
+      <c r="BS48" s="1"/>
+    </row>
+    <row r="49" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
       <c r="AM49" s="1"/>
@@ -3751,8 +5039,8 @@
       <c r="BD49" s="1"/>
       <c r="BE49" s="1"/>
       <c r="BF49" s="1"/>
+      <c r="BG49" s="1"/>
       <c r="BH49" s="1"/>
-      <c r="BI49" s="1"/>
       <c r="BJ49" s="1"/>
       <c r="BK49" s="1"/>
       <c r="BL49" s="1"/>
@@ -3761,11 +5049,12 @@
       <c r="BO49" s="1"/>
       <c r="BP49" s="1"/>
       <c r="BQ49" s="1"/>
-    </row>
-    <row r="50" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D50" s="1"/>
-      <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
+      <c r="BR49" s="1"/>
+      <c r="BS49" s="1"/>
+    </row>
+    <row r="50" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
       <c r="AM50" s="1"/>
@@ -3788,8 +5077,8 @@
       <c r="BD50" s="1"/>
       <c r="BE50" s="1"/>
       <c r="BF50" s="1"/>
+      <c r="BG50" s="1"/>
       <c r="BH50" s="1"/>
-      <c r="BI50" s="1"/>
       <c r="BJ50" s="1"/>
       <c r="BK50" s="1"/>
       <c r="BL50" s="1"/>
@@ -3798,11 +5087,12 @@
       <c r="BO50" s="1"/>
       <c r="BP50" s="1"/>
       <c r="BQ50" s="1"/>
-    </row>
-    <row r="51" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D51" s="1"/>
-      <c r="AI51" s="1"/>
-      <c r="AJ51" s="1"/>
+      <c r="BR50" s="1"/>
+      <c r="BS50" s="1"/>
+    </row>
+    <row r="51" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
       <c r="AM51" s="1"/>
@@ -3825,8 +5115,8 @@
       <c r="BD51" s="1"/>
       <c r="BE51" s="1"/>
       <c r="BF51" s="1"/>
+      <c r="BG51" s="1"/>
       <c r="BH51" s="1"/>
-      <c r="BI51" s="1"/>
       <c r="BJ51" s="1"/>
       <c r="BK51" s="1"/>
       <c r="BL51" s="1"/>
@@ -3835,11 +5125,12 @@
       <c r="BO51" s="1"/>
       <c r="BP51" s="1"/>
       <c r="BQ51" s="1"/>
-    </row>
-    <row r="52" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
+      <c r="BR51" s="1"/>
+      <c r="BS51" s="1"/>
+    </row>
+    <row r="52" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
       <c r="AM52" s="1"/>
@@ -3862,8 +5153,8 @@
       <c r="BD52" s="1"/>
       <c r="BE52" s="1"/>
       <c r="BF52" s="1"/>
+      <c r="BG52" s="1"/>
       <c r="BH52" s="1"/>
-      <c r="BI52" s="1"/>
       <c r="BJ52" s="1"/>
       <c r="BK52" s="1"/>
       <c r="BL52" s="1"/>
@@ -3872,11 +5163,12 @@
       <c r="BO52" s="1"/>
       <c r="BP52" s="1"/>
       <c r="BQ52" s="1"/>
-    </row>
-    <row r="53" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D53" s="1"/>
-      <c r="AI53" s="1"/>
-      <c r="AJ53" s="1"/>
+      <c r="BR52" s="1"/>
+      <c r="BS52" s="1"/>
+    </row>
+    <row r="53" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
       <c r="AK53" s="1"/>
       <c r="AL53" s="1"/>
       <c r="AM53" s="1"/>
@@ -3899,8 +5191,8 @@
       <c r="BD53" s="1"/>
       <c r="BE53" s="1"/>
       <c r="BF53" s="1"/>
+      <c r="BG53" s="1"/>
       <c r="BH53" s="1"/>
-      <c r="BI53" s="1"/>
       <c r="BJ53" s="1"/>
       <c r="BK53" s="1"/>
       <c r="BL53" s="1"/>
@@ -3909,11 +5201,12 @@
       <c r="BO53" s="1"/>
       <c r="BP53" s="1"/>
       <c r="BQ53" s="1"/>
-    </row>
-    <row r="54" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D54" s="1"/>
-      <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
+      <c r="BR53" s="1"/>
+      <c r="BS53" s="1"/>
+    </row>
+    <row r="54" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
       <c r="AK54" s="1"/>
       <c r="AL54" s="1"/>
       <c r="AM54" s="1"/>
@@ -3936,8 +5229,8 @@
       <c r="BD54" s="1"/>
       <c r="BE54" s="1"/>
       <c r="BF54" s="1"/>
+      <c r="BG54" s="1"/>
       <c r="BH54" s="1"/>
-      <c r="BI54" s="1"/>
       <c r="BJ54" s="1"/>
       <c r="BK54" s="1"/>
       <c r="BL54" s="1"/>
@@ -3946,11 +5239,12 @@
       <c r="BO54" s="1"/>
       <c r="BP54" s="1"/>
       <c r="BQ54" s="1"/>
-    </row>
-    <row r="55" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D55" s="1"/>
-      <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
+      <c r="BR54" s="1"/>
+      <c r="BS54" s="1"/>
+    </row>
+    <row r="55" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
       <c r="AK55" s="1"/>
       <c r="AL55" s="1"/>
       <c r="AM55" s="1"/>
@@ -3973,8 +5267,8 @@
       <c r="BD55" s="1"/>
       <c r="BE55" s="1"/>
       <c r="BF55" s="1"/>
+      <c r="BG55" s="1"/>
       <c r="BH55" s="1"/>
-      <c r="BI55" s="1"/>
       <c r="BJ55" s="1"/>
       <c r="BK55" s="1"/>
       <c r="BL55" s="1"/>
@@ -3983,11 +5277,12 @@
       <c r="BO55" s="1"/>
       <c r="BP55" s="1"/>
       <c r="BQ55" s="1"/>
-    </row>
-    <row r="56" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D56" s="1"/>
-      <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
+      <c r="BR55" s="1"/>
+      <c r="BS55" s="1"/>
+    </row>
+    <row r="56" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
       <c r="AK56" s="1"/>
       <c r="AL56" s="1"/>
       <c r="AM56" s="1"/>
@@ -4010,8 +5305,8 @@
       <c r="BD56" s="1"/>
       <c r="BE56" s="1"/>
       <c r="BF56" s="1"/>
+      <c r="BG56" s="1"/>
       <c r="BH56" s="1"/>
-      <c r="BI56" s="1"/>
       <c r="BJ56" s="1"/>
       <c r="BK56" s="1"/>
       <c r="BL56" s="1"/>
@@ -4020,11 +5315,12 @@
       <c r="BO56" s="1"/>
       <c r="BP56" s="1"/>
       <c r="BQ56" s="1"/>
-    </row>
-    <row r="57" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D57" s="1"/>
-      <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
+      <c r="BR56" s="1"/>
+      <c r="BS56" s="1"/>
+    </row>
+    <row r="57" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
       <c r="AM57" s="1"/>
@@ -4047,8 +5343,8 @@
       <c r="BD57" s="1"/>
       <c r="BE57" s="1"/>
       <c r="BF57" s="1"/>
+      <c r="BG57" s="1"/>
       <c r="BH57" s="1"/>
-      <c r="BI57" s="1"/>
       <c r="BJ57" s="1"/>
       <c r="BK57" s="1"/>
       <c r="BL57" s="1"/>
@@ -4057,11 +5353,12 @@
       <c r="BO57" s="1"/>
       <c r="BP57" s="1"/>
       <c r="BQ57" s="1"/>
-    </row>
-    <row r="58" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D58" s="1"/>
-      <c r="AI58" s="1"/>
-      <c r="AJ58" s="1"/>
+      <c r="BR57" s="1"/>
+      <c r="BS57" s="1"/>
+    </row>
+    <row r="58" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
       <c r="AK58" s="1"/>
       <c r="AL58" s="1"/>
       <c r="AM58" s="1"/>
@@ -4084,8 +5381,8 @@
       <c r="BD58" s="1"/>
       <c r="BE58" s="1"/>
       <c r="BF58" s="1"/>
+      <c r="BG58" s="1"/>
       <c r="BH58" s="1"/>
-      <c r="BI58" s="1"/>
       <c r="BJ58" s="1"/>
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
@@ -4094,11 +5391,12 @@
       <c r="BO58" s="1"/>
       <c r="BP58" s="1"/>
       <c r="BQ58" s="1"/>
-    </row>
-    <row r="59" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D59" s="1"/>
-      <c r="AI59" s="1"/>
-      <c r="AJ59" s="1"/>
+      <c r="BR58" s="1"/>
+      <c r="BS58" s="1"/>
+    </row>
+    <row r="59" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
       <c r="AM59" s="1"/>
@@ -4121,8 +5419,8 @@
       <c r="BD59" s="1"/>
       <c r="BE59" s="1"/>
       <c r="BF59" s="1"/>
+      <c r="BG59" s="1"/>
       <c r="BH59" s="1"/>
-      <c r="BI59" s="1"/>
       <c r="BJ59" s="1"/>
       <c r="BK59" s="1"/>
       <c r="BL59" s="1"/>
@@ -4131,11 +5429,12 @@
       <c r="BO59" s="1"/>
       <c r="BP59" s="1"/>
       <c r="BQ59" s="1"/>
-    </row>
-    <row r="60" spans="4:69" x14ac:dyDescent="0.3">
-      <c r="D60" s="1"/>
-      <c r="AI60" s="1"/>
-      <c r="AJ60" s="1"/>
+      <c r="BR59" s="1"/>
+      <c r="BS59" s="1"/>
+    </row>
+    <row r="60" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
       <c r="AM60" s="1"/>
@@ -4158,8 +5457,8 @@
       <c r="BD60" s="1"/>
       <c r="BE60" s="1"/>
       <c r="BF60" s="1"/>
+      <c r="BG60" s="1"/>
       <c r="BH60" s="1"/>
-      <c r="BI60" s="1"/>
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
       <c r="BL60" s="1"/>
@@ -4168,6 +5467,122 @@
       <c r="BO60" s="1"/>
       <c r="BP60" s="1"/>
       <c r="BQ60" s="1"/>
+      <c r="BR60" s="1"/>
+      <c r="BS60" s="1"/>
+    </row>
+    <row r="61" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="1"/>
+      <c r="AO61" s="1"/>
+      <c r="AP61" s="1"/>
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="1"/>
+      <c r="AT61" s="1"/>
+      <c r="AU61" s="1"/>
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="1"/>
+      <c r="AX61" s="1"/>
+      <c r="AY61" s="1"/>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="1"/>
+      <c r="BB61" s="1"/>
+      <c r="BC61" s="1"/>
+      <c r="BD61" s="1"/>
+      <c r="BE61" s="1"/>
+      <c r="BF61" s="1"/>
+      <c r="BG61" s="1"/>
+      <c r="BH61" s="1"/>
+      <c r="BJ61" s="1"/>
+      <c r="BK61" s="1"/>
+      <c r="BL61" s="1"/>
+      <c r="BM61" s="1"/>
+      <c r="BN61" s="1"/>
+      <c r="BO61" s="1"/>
+      <c r="BP61" s="1"/>
+      <c r="BQ61" s="1"/>
+      <c r="BR61" s="1"/>
+      <c r="BS61" s="1"/>
+    </row>
+    <row r="62" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="AK62" s="1"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="1"/>
+      <c r="AO62" s="1"/>
+      <c r="AP62" s="1"/>
+      <c r="AQ62" s="1"/>
+      <c r="AR62" s="1"/>
+      <c r="AS62" s="1"/>
+      <c r="AT62" s="1"/>
+      <c r="AU62" s="1"/>
+      <c r="AV62" s="1"/>
+      <c r="AW62" s="1"/>
+      <c r="AX62" s="1"/>
+      <c r="AY62" s="1"/>
+      <c r="AZ62" s="1"/>
+      <c r="BA62" s="1"/>
+      <c r="BB62" s="1"/>
+      <c r="BC62" s="1"/>
+      <c r="BD62" s="1"/>
+      <c r="BE62" s="1"/>
+      <c r="BF62" s="1"/>
+      <c r="BG62" s="1"/>
+      <c r="BH62" s="1"/>
+      <c r="BJ62" s="1"/>
+      <c r="BK62" s="1"/>
+      <c r="BL62" s="1"/>
+      <c r="BM62" s="1"/>
+      <c r="BN62" s="1"/>
+      <c r="BO62" s="1"/>
+      <c r="BP62" s="1"/>
+      <c r="BQ62" s="1"/>
+      <c r="BR62" s="1"/>
+      <c r="BS62" s="1"/>
+    </row>
+    <row r="63" spans="5:71" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="1"/>
+      <c r="AU63" s="1"/>
+      <c r="AV63" s="1"/>
+      <c r="AW63" s="1"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="1"/>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="1"/>
+      <c r="BB63" s="1"/>
+      <c r="BC63" s="1"/>
+      <c r="BD63" s="1"/>
+      <c r="BE63" s="1"/>
+      <c r="BF63" s="1"/>
+      <c r="BG63" s="1"/>
+      <c r="BH63" s="1"/>
+      <c r="BJ63" s="1"/>
+      <c r="BK63" s="1"/>
+      <c r="BL63" s="1"/>
+      <c r="BM63" s="1"/>
+      <c r="BN63" s="1"/>
+      <c r="BO63" s="1"/>
+      <c r="BP63" s="1"/>
+      <c r="BQ63" s="1"/>
+      <c r="BR63" s="1"/>
+      <c r="BS63" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4175,545 +5590,147 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB50E3A2-FDBB-4648-8333-2A8A81886E9C}">
-  <dimension ref="A1:B9"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76058666-6699-4726-8164-67E37D315FC2}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="47.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="b">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="b">
+      <c r="D3">
+        <v>900</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="b">
+      <c r="F3">
+        <v>1500</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC39740C-BBBA-4550-A14F-BA7A8AC6E618}">
-  <dimension ref="A1:BC29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="I3" t="b">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AP2" s="1"/>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>-16.63</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3">
-        <v>2744</v>
-      </c>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="E4">
-        <v>-18.380253106718484</v>
-      </c>
-      <c r="F4">
-        <v>-19.54</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4">
-        <v>3534</v>
-      </c>
-      <c r="K4">
-        <v>3464</v>
-      </c>
-      <c r="L4">
-        <v>1765</v>
-      </c>
-      <c r="M4">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>-6.77</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5">
-        <v>4342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
+      <c r="J3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1E-10</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1E-10</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4721,62 +5738,611 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9031F32C-40D8-4CE9-82EB-D65A7753459F}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA3BA1A-334E-44D2-96CB-219546C8DBF5}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C3">
+        <v>23.23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4">
+        <v>0.52</v>
+      </c>
+      <c r="C4">
+        <v>19.78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>0.71</v>
+      </c>
+      <c r="C5">
+        <v>23.69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DF76BA-4A75-44F6-9B27-46A6358EAEB9}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>12.4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2.1671000000000001E-9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4.4385000000000002E-10</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB50E3A2-FDBB-4648-8333-2A8A81886E9C}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="b">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3">
-        <v>2.1671000000000001E-9</v>
-      </c>
-      <c r="C3">
-        <v>12.2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19551FD-AEAC-4B83-AFF0-1C4D43FB7482}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-52.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-17.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-17.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-20.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-52.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-17.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-17.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-20.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>